--- a/figures/supplement/Supplemental File 2.xlsx
+++ b/figures/supplement/Supplemental File 2.xlsx
@@ -5,23 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditharun/Desktop/cda-paper/figures/supplement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditharun/Documents/correlated-drug-action/figures/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BBE24-984F-3045-AD55-B4EA949F160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4FEC76-2907-D849-9473-2A350EB7BECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26700" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="3000" windowWidth="25380" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bliss.Loewe" sheetId="1" r:id="rId1"/>
-    <sheet name="Bliss.HSA" sheetId="2" r:id="rId2"/>
+    <sheet name="Sham Compliant dCDA Results" sheetId="1" r:id="rId1"/>
+    <sheet name="dCDA Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -117,18 +128,6 @@
   </si>
   <si>
     <t>48 Hr Tamoxifen and Withaferin A</t>
-  </si>
-  <si>
-    <t>*Unless otherwise noted, combinations collected at 24 hours</t>
-  </si>
-  <si>
-    <t>All combinations tested on MCF7 cells</t>
-  </si>
-  <si>
-    <t>Pre.outlier.rho is the fitted parameter estimate before outlier correction; post.outlier.rho is the fitted parameter estimate after outlier correction</t>
-  </si>
-  <si>
-    <t>Gof.p is goodness of fit p value; Eob.p is Excess over Bliss p value</t>
   </si>
 </sst>
 </file>
@@ -515,15 +514,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A37"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.43571386149365898</v>
+      </c>
+      <c r="F2">
+        <v>3.5628791643269599E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>6.7189737999861596E-11</v>
+      </c>
+      <c r="F3">
+        <v>6.7189737999861596E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.29286755188115399</v>
+      </c>
+      <c r="F4">
+        <v>0.29286755188115399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3.7210529669440197E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.7210529669440197E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.82784290550392103</v>
+      </c>
+      <c r="F6">
+        <v>0.82784290550392103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.55914191892854204</v>
+      </c>
+      <c r="F7">
+        <v>0.42099480582444998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.13</v>
+      </c>
+      <c r="C8">
+        <v>0.13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.27067570745035202</v>
+      </c>
+      <c r="F8">
+        <v>8.66806672751358E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6.3740488952966495E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.3740488952966495E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>8.0000000000000099E-2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.132197880093195</v>
+      </c>
+      <c r="F10">
+        <v>5.4738424345686204E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.03</v>
+      </c>
+      <c r="C11">
+        <v>-0.03</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7.5204443641006501E-3</v>
+      </c>
+      <c r="F11">
+        <v>5.6852512030984702E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.69147673174959001</v>
+      </c>
+      <c r="F12">
+        <v>1.5119375500270499E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1.07199213925436E-4</v>
+      </c>
+      <c r="F13">
+        <v>1.07199213925436E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>-0.04</v>
+      </c>
+      <c r="C14">
+        <v>-0.04</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.24056049898495899</v>
+      </c>
+      <c r="F14">
+        <v>0.65259939518788102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5.8276507974313399E-2</v>
+      </c>
+      <c r="F15">
+        <v>5.8276507974313399E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.391831994564736</v>
+      </c>
+      <c r="F16">
+        <v>2.1878950313678001E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.21</v>
+      </c>
+      <c r="C17">
+        <v>0.21</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.12865315078464101</v>
+      </c>
+      <c r="F17">
+        <v>6.0409056387355096E-11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.70192479852351597</v>
+      </c>
+      <c r="F18">
+        <v>5.7586435580307397E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>7.0000000000000104E-2</v>
+      </c>
+      <c r="C19">
+        <v>7.0000000000000104E-2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.56882395623457505</v>
+      </c>
+      <c r="F19">
+        <v>4.22235960655373E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="C20">
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>6.6826267394427596E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.18592654535867E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5.7086178232518998E-3</v>
+      </c>
+      <c r="F21">
+        <v>5.7086178232518998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0.12</v>
+      </c>
+      <c r="C22">
+        <v>0.12</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>8.7049312430933501E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.11339774577211E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>7.0000000000000104E-2</v>
+      </c>
+      <c r="C23">
+        <v>-4.9999999999999899E-2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0.50882006319921602</v>
+      </c>
+      <c r="F23">
+        <v>2.1528184969365899E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0.03</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>9.5734015710420894E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.1948600996980501E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.68058252091149896</v>
+      </c>
+      <c r="F25">
+        <v>0.68058252091149896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>-0.02</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0.156882149372985</v>
+      </c>
+      <c r="F26">
+        <v>0.156882149372985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3.3637394930214199E-5</v>
+      </c>
+      <c r="F27">
+        <v>3.3637394930214199E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -555,19 +1115,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08</v>
+        <v>8.0000000000000099E-2</v>
       </c>
       <c r="C2">
-        <v>0.08</v>
+        <v>8.0000000000000099E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.43470299699999998</v>
+        <v>0.41730863804482798</v>
       </c>
       <c r="F2">
-        <v>1.0096195000000001E-2</v>
+        <v>3.6144448321964403E-5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -584,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.7600000000000004E-11</v>
+        <v>6.5905143840556604E-11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>6.5905143840556604E-11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -604,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.29386304600000002</v>
+        <v>0.29200121427840497</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.29200121427840497</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -624,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.7310564999999997E-2</v>
+        <v>3.6988131562627202E-2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3.6988131562627202E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -644,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.82602199600000004</v>
+        <v>0.82984221826999405</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.82984221826999405</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -664,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.55829458499999995</v>
+        <v>0.55863030848408901</v>
       </c>
       <c r="F7">
-        <v>0.87568390699999998</v>
+        <v>0.42200188416235301</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -675,19 +1235,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.26982716800000001</v>
+        <v>0.43377138745187799</v>
       </c>
       <c r="F8">
-        <v>1.118106E-3</v>
+        <v>8.7500609952780601E-7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>6.4976010000000001E-2</v>
+        <v>6.3614283520738904E-2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>6.3614283520738904E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -718,16 +1278,16 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.08</v>
+        <v>8.0000000000000099E-2</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.131424917</v>
+        <v>0.124644620749369</v>
       </c>
       <c r="F10">
-        <v>1.5210962E-2</v>
+        <v>5.53787968125508E-6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -744,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.5204440000000003E-3</v>
+        <v>7.5204443641006501E-3</v>
       </c>
       <c r="F11">
-        <v>0.61165783900000004</v>
+        <v>5.6570193063284001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -764,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.69147673200000004</v>
+        <v>0.69147673174959001</v>
       </c>
       <c r="F12">
-        <v>3.3299999999999999E-6</v>
+        <v>1.51544754894553E-6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -784,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.0744299999999999E-4</v>
+        <v>1.07061620023215E-4</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>1.07061620023215E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -804,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.24056049900000001</v>
+        <v>0.24056049898495899</v>
       </c>
       <c r="F14">
-        <v>0.25437813199999998</v>
+        <v>0.65454422379338295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -824,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.8515612000000002E-2</v>
+        <v>5.7862233797648203E-2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>5.7862233797648203E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,19 +1395,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C16">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.391338032</v>
+        <v>0.69504518773360902</v>
       </c>
       <c r="F16">
-        <v>1.8500000000000001E-6</v>
+        <v>2.21332412476372E-9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -855,19 +1415,19 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="C17">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.128490248</v>
+        <v>0.20309038058336201</v>
       </c>
       <c r="F17">
-        <v>7.6499999999999996E-6</v>
+        <v>6.0936519130485104E-11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.70356232600000002</v>
+        <v>0.74475042315657503</v>
       </c>
       <c r="F18">
-        <v>5.6900000000000001E-5</v>
+        <v>5.8305721282527803E-6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -895,19 +1455,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000104E-2</v>
       </c>
       <c r="C19">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000104E-2</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.56959764599999996</v>
+        <v>0.58604617699790196</v>
       </c>
       <c r="F19">
-        <v>5.6137290999999999E-2</v>
+        <v>4.25002040868947E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -915,19 +1475,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000104E-2</v>
       </c>
       <c r="C20">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000104E-2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.13130583100000001</v>
+        <v>0.12666022323707599</v>
       </c>
       <c r="F20">
-        <v>0.104107607</v>
+        <v>2.2054595468187199E-4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -944,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>5.7529169999999998E-3</v>
+        <v>5.6355225961290303E-3</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>5.6355225961290303E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -964,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.7358387759745096E-2</v>
+        <v>7.8333600106700596E-2</v>
       </c>
       <c r="F22">
-        <v>2.5666420936813598E-4</v>
+        <v>1.12364871360613E-10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -978,16 +1538,16 @@
         <v>7.0000000000000104E-2</v>
       </c>
       <c r="C23">
-        <v>-4.9999999999999899E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0.50882006319921602</v>
+        <v>0.54354393684248503</v>
       </c>
       <c r="F23">
-        <v>2.51585757088164E-2</v>
+        <v>2.2041808050442599E-4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,10 +1564,10 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>9.6909132757069694E-2</v>
+        <v>9.4701608317034197E-2</v>
       </c>
       <c r="F24">
-        <v>0.35064202978349501</v>
+        <v>3.2840412496778202E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.682509604177438</v>
+        <v>0.68277995699580396</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.68277995699580396</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1044,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>0.158493743805045</v>
+        <v>0.158612084647763</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.158612084647763</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1064,612 +1624,10 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>3.3119219876917799E-5</v>
+        <v>3.2766987111112201E-5</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>8.0000000000000099E-2</v>
-      </c>
-      <c r="C2">
-        <v>8.0000000000000099E-2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.41730863804482798</v>
-      </c>
-      <c r="F2">
-        <v>1.08300117430966E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>6.5905143840556604E-11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.29200121427840497</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3.6988131562627202E-2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.82984221826999405</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.55863030848408901</v>
-      </c>
-      <c r="F7">
-        <v>0.87711864997285005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.43377138745187799</v>
-      </c>
-      <c r="F8">
-        <v>5.7622230570842997E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>6.3614283520738904E-2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>8.0000000000000099E-2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.124644620749369</v>
-      </c>
-      <c r="F10">
-        <v>1.61594135848626E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>-0.03</v>
-      </c>
-      <c r="C11">
-        <v>-0.03</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>7.5204443641006501E-3</v>
-      </c>
-      <c r="F11">
-        <v>0.61416919254663305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="C12">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.69147673174959001</v>
-      </c>
-      <c r="F12">
-        <v>3.3870611754306502E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1.07061620023215E-4</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>-0.04</v>
-      </c>
-      <c r="C14">
-        <v>-0.04</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.24056049898495899</v>
-      </c>
-      <c r="F14">
-        <v>0.255914711798021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>5.7862233797648203E-2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>0.15</v>
-      </c>
-      <c r="C16">
-        <v>0.15</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.69504518773360902</v>
-      </c>
-      <c r="F16">
-        <v>5.7659268909902595E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0.22</v>
-      </c>
-      <c r="C17">
-        <v>0.22</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.20309038058336201</v>
-      </c>
-      <c r="F17">
-        <v>4.2978024481210403E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0.1</v>
-      </c>
-      <c r="C18">
-        <v>0.1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.74475042315657503</v>
-      </c>
-      <c r="F18">
-        <v>6.5883613061043302E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="C19">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0.58604617699790196</v>
-      </c>
-      <c r="F19">
-        <v>5.8652897317805298E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="C20">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0.12666022323707599</v>
-      </c>
-      <c r="F20">
-        <v>0.107571382403175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>5.6355225961290303E-3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0.12</v>
-      </c>
-      <c r="C22">
-        <v>0.12</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>7.8333600106700596E-2</v>
-      </c>
-      <c r="F22">
-        <v>2.9269009934419901E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.05</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>0.54354393684248503</v>
-      </c>
-      <c r="F23">
-        <v>2.2919179875686899E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0.03</v>
-      </c>
-      <c r="C24">
-        <v>0.02</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>9.4701608317034197E-2</v>
-      </c>
-      <c r="F24">
-        <v>0.35570021469277502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0.68277995699580396</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>0.02</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0.158612084647763</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
         <v>3.2766987111112201E-5</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
